--- a/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
+++ b/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\elec\FPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\eps-us-2.1.0\eps-us-2.1.0\InputData\elec\FPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36A942-F451-4357-BE88-232525BA1DF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="11610"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FPCbS Flexibility Points Consumed by Source</t>
   </si>
@@ -197,9 +198,6 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -210,12 +208,27 @@
   </si>
   <si>
     <t>As this is part of the way we define the concept of "flexibility</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>FP (flexibility points/MW)</t>
+  </si>
+  <si>
+    <t>For India - solar PV, onshore and offshore wind need flexibility.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,12 +266,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -611,17 +629,17 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -742,6 +760,11 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -751,27 +774,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>49</v>
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -871,6 +898,30 @@
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
